--- a/resources/data/charts.xlsx
+++ b/resources/data/charts.xlsx
@@ -2286,7 +2286,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0858922"/>
+          <c:x val="0.0858921"/>
           <c:y val="0"/>
           <c:w val="0.892901"/>
           <c:h val="0.0633182"/>
@@ -2341,9 +2341,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.110362"/>
+          <c:x val="0.116246"/>
           <c:y val="0.12131"/>
-          <c:w val="0.884638"/>
+          <c:w val="0.878754"/>
           <c:h val="0.794572"/>
         </c:manualLayout>
       </c:layout>
@@ -2517,94 +2517,94 @@
                   <c:v>1.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>2.000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3.000000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>3.000000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>4.000000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>4.000000</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
+                  <c:v>6.000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>9.000000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
                   <c:v>9.000000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>10.000000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
+                  <c:v>11.000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>12.000000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
+                  <c:v>12.000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>13.000000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
                   <c:v>13.000000</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.000000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>14.000000</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>16.000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18.000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>41.000000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45.000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>51.000000</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>54.000000</c:v>
+                  <c:v>15.000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60.000000</c:v>
+                  <c:v>21.000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>101.000000</c:v>
+                  <c:v>27.000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>101.000000</c:v>
+                  <c:v>28.000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>121.000000</c:v>
+                  <c:v>33.000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>129.000000</c:v>
+                  <c:v>33.000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>143.000000</c:v>
+                  <c:v>58.000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>316.000000</c:v>
+                  <c:v>70.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2759,8 +2759,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="100"/>
-        <c:minorUnit val="50"/>
+        <c:majorUnit val="17.5"/>
+        <c:minorUnit val="8.75"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2777,9 +2777,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0899947"/>
+          <c:x val="0.0960129"/>
           <c:y val="0"/>
-          <c:w val="0.86211"/>
+          <c:w val="0.856409"/>
           <c:h val="0.0633182"/>
         </c:manualLayout>
       </c:layout>
@@ -3268,7 +3268,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0621037"/>
+          <c:x val="0.0621036"/>
           <c:y val="0"/>
           <c:w val="0.891795"/>
           <c:h val="0.0633182"/>
@@ -4313,7 +4313,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0337239"/>
+          <c:x val="0.0337238"/>
           <c:y val="0"/>
           <c:w val="0.9"/>
           <c:h val="0.0640667"/>
@@ -4361,13 +4361,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>653034</xdr:colOff>
+      <xdr:colOff>653033</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>117263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>977900</xdr:colOff>
+      <xdr:colOff>977899</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>6087</xdr:rowOff>
     </xdr:to>
@@ -4378,7 +4378,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9365233" y="877993"/>
-        <a:ext cx="5303268" cy="3710890"/>
+        <a:ext cx="5303267" cy="3710890"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4402,7 +4402,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1122680</xdr:colOff>
+      <xdr:colOff>1122679</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19887</xdr:rowOff>
     </xdr:to>
@@ -4412,8 +4412,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7020813" y="1638553"/>
-        <a:ext cx="5303268" cy="3710890"/>
+        <a:off x="7020814" y="1638553"/>
+        <a:ext cx="5303266" cy="3710890"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4448,7 +4448,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="-256811" y="3849242"/>
-        <a:ext cx="5412012" cy="4034526"/>
+        <a:ext cx="5412011" cy="4034526"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4466,7 +4466,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>517651</xdr:colOff>
+      <xdr:colOff>517652</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -4482,7 +4482,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6740651" y="0"/>
+        <a:off x="6740652" y="0"/>
         <a:ext cx="5120387" cy="3884423"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -4501,13 +4501,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>411733</xdr:colOff>
+      <xdr:colOff>376427</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:colOff>736599</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>217932</xdr:rowOff>
     </xdr:to>
@@ -4517,8 +4517,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6634733" y="0"/>
-        <a:ext cx="5303267" cy="3884423"/>
+        <a:off x="6599427" y="0"/>
+        <a:ext cx="5338573" cy="3884423"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4552,8 +4552,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6811263" y="0"/>
-        <a:ext cx="5126737" cy="3884423"/>
+        <a:off x="6811264" y="0"/>
+        <a:ext cx="5126736" cy="3884423"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4571,13 +4571,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:colOff>634999</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:colOff>736599</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>245745</xdr:rowOff>
     </xdr:to>
@@ -4588,7 +4588,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6857999" y="0"/>
-        <a:ext cx="5080002" cy="3810000"/>
+        <a:ext cx="5080001" cy="3810000"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7591,7 +7591,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -7602,7 +7602,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -7613,7 +7613,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -7624,7 +7624,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -7635,7 +7635,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -7646,7 +7646,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -7657,7 +7657,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -7668,7 +7668,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -7679,7 +7679,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -7690,7 +7690,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -7701,7 +7701,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -7712,7 +7712,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -7723,7 +7723,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -7734,7 +7734,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -7745,7 +7745,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -7756,7 +7756,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -7767,7 +7767,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -7778,7 +7778,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -7789,7 +7789,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -7800,7 +7800,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -7811,7 +7811,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -7822,7 +7822,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="9">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -7833,7 +7833,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="9">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -7844,7 +7844,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -7855,7 +7855,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="9">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -7866,7 +7866,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="9">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -7877,7 +7877,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="9">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -7888,7 +7888,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -7899,7 +7899,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="9">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -7910,7 +7910,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9">
-        <v>316</v>
+        <v>70</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>

--- a/resources/data/charts.xlsx
+++ b/resources/data/charts.xlsx
@@ -334,9 +334,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.114728"/>
+          <c:x val="0.126136"/>
           <c:y val="0.0401101"/>
-          <c:w val="0.880272"/>
+          <c:w val="0.868864"/>
           <c:h val="0.832313"/>
         </c:manualLayout>
       </c:layout>
@@ -423,19 +423,19 @@
               <c:numCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23.000000</c:v>
+                  <c:v>21.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.000000</c:v>
+                  <c:v>22.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.000000</c:v>
+                  <c:v>22.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.000000</c:v>
+                  <c:v>29.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.000000</c:v>
+                  <c:v>29.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,8 +590,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="12.5"/>
-        <c:minorUnit val="6.25"/>
+        <c:majorUnit val="7.25"/>
+        <c:minorUnit val="3.625"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -716,19 +716,19 @@
               <c:numCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23.000000</c:v>
+                  <c:v>21.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.000000</c:v>
+                  <c:v>43.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.000000</c:v>
+                  <c:v>63.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.000000</c:v>
+                  <c:v>90.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133.000000</c:v>
+                  <c:v>112.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -883,8 +883,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="35"/>
-        <c:minorUnit val="17.5"/>
+        <c:majorUnit val="30"/>
+        <c:minorUnit val="15"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1408,9 +1408,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet 4'!$A$3:$A$135</c:f>
+              <c:f>'Sheet 4'!$A$3:$A$114</c:f>
               <c:strCache>
-                <c:ptCount val="133"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1746,78 +1746,15 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>133</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 4'!$B$3:$B$135</c:f>
+              <c:f>'Sheet 4'!$B$3:$B$114</c:f>
               <c:numCache>
-                <c:ptCount val="133"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>1.000000</c:v>
                 </c:pt>
@@ -1897,324 +1834,261 @@
                   <c:v>1.000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.000000</c:v>
+                  <c:v>8.000000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.000000</c:v>
+                  <c:v>8.000000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.000000</c:v>
+                  <c:v>8.000000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.000000</c:v>
+                  <c:v>8.000000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.000000</c:v>
+                  <c:v>9.000000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.000000</c:v>
+                  <c:v>9.000000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.000000</c:v>
+                  <c:v>9.000000</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.000000</c:v>
+                  <c:v>9.000000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.000000</c:v>
+                  <c:v>9.000000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.000000</c:v>
+                  <c:v>9.000000</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.000000</c:v>
+                  <c:v>10.000000</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.000000</c:v>
+                  <c:v>10.000000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.000000</c:v>
+                  <c:v>10.000000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.000000</c:v>
+                  <c:v>10.000000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.000000</c:v>
+                  <c:v>11.000000</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.000000</c:v>
+                  <c:v>11.000000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.000000</c:v>
+                  <c:v>11.000000</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.000000</c:v>
+                  <c:v>11.000000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.000000</c:v>
+                  <c:v>11.000000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.000000</c:v>
+                  <c:v>11.000000</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.000000</c:v>
+                  <c:v>11.000000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.000000</c:v>
+                  <c:v>12.000000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.000000</c:v>
+                  <c:v>13.000000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.000000</c:v>
+                  <c:v>13.000000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.000000</c:v>
+                  <c:v>15.000000</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.000000</c:v>
+                  <c:v>16.000000</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.000000</c:v>
+                  <c:v>17.000000</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.000000</c:v>
+                  <c:v>18.000000</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.000000</c:v>
+                  <c:v>20.000000</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.000000</c:v>
+                  <c:v>20.000000</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.000000</c:v>
+                  <c:v>20.000000</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10.000000</c:v>
+                  <c:v>21.000000</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10.000000</c:v>
+                  <c:v>21.000000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>11.000000</c:v>
+                  <c:v>21.000000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>11.000000</c:v>
+                  <c:v>21.000000</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>11.000000</c:v>
+                  <c:v>21.000000</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>11.000000</c:v>
+                  <c:v>22.000000</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>11.000000</c:v>
+                  <c:v>22.000000</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>11.000000</c:v>
+                  <c:v>25.000000</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>11.000000</c:v>
+                  <c:v>25.000000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>11.000000</c:v>
+                  <c:v>27.000000</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>11.000000</c:v>
+                  <c:v>27.000000</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>12.000000</c:v>
+                  <c:v>27.000000</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>13.000000</c:v>
+                  <c:v>27.000000</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>15.000000</c:v>
+                  <c:v>27.000000</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>15.000000</c:v>
+                  <c:v>27.000000</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>16.000000</c:v>
+                  <c:v>27.000000</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>17.000000</c:v>
+                  <c:v>32.000000</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>18.000000</c:v>
+                  <c:v>32.000000</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>20.000000</c:v>
+                  <c:v>32.000000</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>20.000000</c:v>
+                  <c:v>58.000000</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>20.000000</c:v>
+                  <c:v>58.000000</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>21.000000</c:v>
+                  <c:v>64.000000</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>21.000000</c:v>
+                  <c:v>64.000000</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>21.000000</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>21.000000</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>21.000000</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>22.000000</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>22.000000</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>25.000000</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>25.000000</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>27.000000</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>27.000000</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>27.000000</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>27.000000</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>27.000000</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>27.000000</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>27.000000</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>32.000000</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>32.000000</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>32.000000</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>58.000000</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>58.000000</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>64.000000</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>64.000000</c:v>
-                </c:pt>
-                <c:pt idx="132">
                   <c:v>66.000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2505,9 +2379,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet 5'!$A$3:$A$50</c:f>
+              <c:f>'Sheet 5'!$A$3:$A$31</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2594,72 +2468,15 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 5'!$B$3:$B$50</c:f>
+              <c:f>'Sheet 5'!$B$3:$B$31</c:f>
               <c:numCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.000000</c:v>
                 </c:pt>
@@ -2670,138 +2487,81 @@
                   <c:v>1.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.000000</c:v>
+                  <c:v>9.000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.000000</c:v>
+                  <c:v>9.000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.000000</c:v>
+                  <c:v>10.000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.000000</c:v>
+                  <c:v>10.000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.000000</c:v>
+                  <c:v>11.000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.000000</c:v>
+                  <c:v>12.000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.000000</c:v>
+                  <c:v>12.000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.000000</c:v>
+                  <c:v>13.000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.000000</c:v>
+                  <c:v>13.000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.000000</c:v>
+                  <c:v>15.000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.000000</c:v>
+                  <c:v>21.000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.000000</c:v>
+                  <c:v>27.000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.000000</c:v>
+                  <c:v>28.000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.000000</c:v>
+                  <c:v>33.000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.000000</c:v>
+                  <c:v>33.000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.000000</c:v>
+                  <c:v>58.000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.000000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10.000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11.000000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.000000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12.000000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12.000000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13.000000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>15.000000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>15.000000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>21.000000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>27.000000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>28.000000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>33.000000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>33.000000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>58.000000</c:v>
-                </c:pt>
-                <c:pt idx="47">
                   <c:v>70.000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3092,9 +2852,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet 6'!$A$3:$A$50</c:f>
+              <c:f>'Sheet 6'!$A$3:$A$31</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3181,72 +2941,15 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 6'!$B$3:$B$50</c:f>
+              <c:f>'Sheet 6'!$B$3:$B$31</c:f>
               <c:numCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.000000</c:v>
                 </c:pt>
@@ -3269,126 +2972,69 @@
                   <c:v>1.000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="47">
                   <c:v>5.000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3617,10 +3263,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0780409"/>
-          <c:y val="0.12368"/>
-          <c:w val="0.916959"/>
-          <c:h val="0.810337"/>
+          <c:x val="0.0988127"/>
+          <c:y val="0.0401101"/>
+          <c:w val="0.896187"/>
+          <c:h val="0.832313"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4435,13 +4081,13 @@
                   <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>6.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>6.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>6.000000</c:v>
@@ -4453,10 +4099,10 @@
                   <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>7.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>7.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>7.000000</c:v>
@@ -4468,19 +4114,19 @@
                   <c:v>7.000000</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>8.000000</c:v>
+                  <c:v>7.000000</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>8.000000</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>12.000000</c:v>
+                  <c:v>8.000000</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>18.000000</c:v>
+                  <c:v>9.000000</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>22.000000</c:v>
+                  <c:v>11.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4498,6 +4144,35 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>APK</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4549,6 +4224,35 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>Number of Partial Order Violations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4577,8 +4281,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="7.5"/>
-        <c:minorUnit val="3.75"/>
+        <c:majorUnit val="3"/>
+        <c:minorUnit val="1.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4589,42 +4293,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0544542"/>
-          <c:y val="0"/>
-          <c:w val="0.898026"/>
-          <c:h val="0.0640667"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -4643,7 +4311,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>547115</xdr:colOff>
+      <xdr:colOff>476503</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>117263</xdr:rowOff>
     </xdr:from>
@@ -4659,8 +4327,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9259315" y="877993"/>
-        <a:ext cx="5409185" cy="3710890"/>
+        <a:off x="9188703" y="877993"/>
+        <a:ext cx="5479797" cy="3710890"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4853,15 +4521,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>529081</xdr:colOff>
+      <xdr:colOff>411733</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>322376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>641846</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>245745</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>214376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4869,8 +4537,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6752081" y="0"/>
-        <a:ext cx="5091166" cy="3810000"/>
+        <a:off x="6634733" y="322376"/>
+        <a:ext cx="5208514" cy="3710891"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5977,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -5990,7 +5658,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6003,7 +5671,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6016,7 +5684,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6029,7 +5697,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6236,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -6247,7 +5915,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6258,7 +5926,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6269,7 +5937,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6280,7 +5948,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6479,7 +6147,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E135"/>
+  <dimension ref="A2:E114"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -6802,7 +6470,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -6813,7 +6481,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -6824,7 +6492,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -6835,7 +6503,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -6846,7 +6514,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -6857,7 +6525,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -6868,7 +6536,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -6879,7 +6547,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -6890,7 +6558,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -6901,7 +6569,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -6912,7 +6580,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -6923,7 +6591,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -6934,7 +6602,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -6945,7 +6613,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -6956,7 +6624,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -6967,7 +6635,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -6978,7 +6646,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -6989,7 +6657,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -7000,7 +6668,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -7011,7 +6679,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -7022,7 +6690,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -7033,7 +6701,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -7044,7 +6712,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -7055,7 +6723,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -7066,7 +6734,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -7077,7 +6745,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -7088,7 +6756,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -7099,7 +6767,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -7110,7 +6778,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -7121,7 +6789,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -7132,7 +6800,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -7143,7 +6811,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -7154,7 +6822,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -7165,7 +6833,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -7176,7 +6844,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -7187,7 +6855,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -7198,7 +6866,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -7209,7 +6877,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -7220,7 +6888,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -7231,7 +6899,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -7242,7 +6910,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -7253,7 +6921,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -7264,7 +6932,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -7275,7 +6943,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -7286,7 +6954,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -7297,7 +6965,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -7308,7 +6976,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -7319,7 +6987,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -7330,7 +6998,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -7341,7 +7009,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -7352,7 +7020,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -7363,7 +7031,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -7374,7 +7042,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -7385,7 +7053,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -7396,7 +7064,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -7407,7 +7075,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -7418,7 +7086,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
@@ -7429,7 +7097,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="9">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -7440,7 +7108,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -7451,7 +7119,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="9">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -7462,7 +7130,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="9">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
@@ -7473,7 +7141,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="9">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
@@ -7484,7 +7152,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="9">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -7495,7 +7163,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="9">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -7506,7 +7174,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="9">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -7517,7 +7185,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="9">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -7528,7 +7196,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="9">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
@@ -7539,7 +7207,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -7550,7 +7218,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -7561,7 +7229,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="9">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
@@ -7572,7 +7240,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="9">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
@@ -7583,7 +7251,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="9">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -7594,7 +7262,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="9">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -7605,7 +7273,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -7616,7 +7284,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="9">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
@@ -7627,7 +7295,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="9">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -7638,7 +7306,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="9">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -7649,7 +7317,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -7660,7 +7328,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="9">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
@@ -7671,7 +7339,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
@@ -7682,7 +7350,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
@@ -7693,7 +7361,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
@@ -7704,7 +7372,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
@@ -7715,7 +7383,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -7726,7 +7394,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -7737,242 +7405,11 @@
         <v>112</v>
       </c>
       <c r="B114" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
-    </row>
-    <row r="115" ht="20.05" customHeight="1">
-      <c r="A115" s="8">
-        <v>113</v>
-      </c>
-      <c r="B115" s="9">
-        <v>21</v>
-      </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-    </row>
-    <row r="116" ht="20.05" customHeight="1">
-      <c r="A116" s="8">
-        <v>114</v>
-      </c>
-      <c r="B116" s="9">
-        <v>21</v>
-      </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-    </row>
-    <row r="117" ht="20.05" customHeight="1">
-      <c r="A117" s="8">
-        <v>115</v>
-      </c>
-      <c r="B117" s="9">
-        <v>22</v>
-      </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-    </row>
-    <row r="118" ht="20.05" customHeight="1">
-      <c r="A118" s="8">
-        <v>116</v>
-      </c>
-      <c r="B118" s="9">
-        <v>22</v>
-      </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-    </row>
-    <row r="119" ht="20.05" customHeight="1">
-      <c r="A119" s="8">
-        <v>117</v>
-      </c>
-      <c r="B119" s="9">
-        <v>25</v>
-      </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-    </row>
-    <row r="120" ht="20.05" customHeight="1">
-      <c r="A120" s="8">
-        <v>118</v>
-      </c>
-      <c r="B120" s="9">
-        <v>25</v>
-      </c>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-    </row>
-    <row r="121" ht="20.05" customHeight="1">
-      <c r="A121" s="8">
-        <v>119</v>
-      </c>
-      <c r="B121" s="9">
-        <v>27</v>
-      </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-    </row>
-    <row r="122" ht="20.05" customHeight="1">
-      <c r="A122" s="8">
-        <v>120</v>
-      </c>
-      <c r="B122" s="9">
-        <v>27</v>
-      </c>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-    </row>
-    <row r="123" ht="20.05" customHeight="1">
-      <c r="A123" s="8">
-        <v>121</v>
-      </c>
-      <c r="B123" s="9">
-        <v>27</v>
-      </c>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-    </row>
-    <row r="124" ht="20.05" customHeight="1">
-      <c r="A124" s="8">
-        <v>122</v>
-      </c>
-      <c r="B124" s="9">
-        <v>27</v>
-      </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-    </row>
-    <row r="125" ht="20.05" customHeight="1">
-      <c r="A125" s="8">
-        <v>123</v>
-      </c>
-      <c r="B125" s="9">
-        <v>27</v>
-      </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-    </row>
-    <row r="126" ht="20.05" customHeight="1">
-      <c r="A126" s="8">
-        <v>124</v>
-      </c>
-      <c r="B126" s="9">
-        <v>27</v>
-      </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-    </row>
-    <row r="127" ht="20.05" customHeight="1">
-      <c r="A127" s="8">
-        <v>125</v>
-      </c>
-      <c r="B127" s="9">
-        <v>27</v>
-      </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-    </row>
-    <row r="128" ht="20.05" customHeight="1">
-      <c r="A128" s="8">
-        <v>126</v>
-      </c>
-      <c r="B128" s="9">
-        <v>32</v>
-      </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-    </row>
-    <row r="129" ht="20.05" customHeight="1">
-      <c r="A129" s="8">
-        <v>127</v>
-      </c>
-      <c r="B129" s="9">
-        <v>32</v>
-      </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-    </row>
-    <row r="130" ht="20.05" customHeight="1">
-      <c r="A130" s="8">
-        <v>128</v>
-      </c>
-      <c r="B130" s="9">
-        <v>32</v>
-      </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-    </row>
-    <row r="131" ht="20.05" customHeight="1">
-      <c r="A131" s="8">
-        <v>129</v>
-      </c>
-      <c r="B131" s="9">
-        <v>58</v>
-      </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-    </row>
-    <row r="132" ht="20.05" customHeight="1">
-      <c r="A132" s="8">
-        <v>130</v>
-      </c>
-      <c r="B132" s="9">
-        <v>58</v>
-      </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-    </row>
-    <row r="133" ht="20.05" customHeight="1">
-      <c r="A133" s="8">
-        <v>131</v>
-      </c>
-      <c r="B133" s="9">
-        <v>64</v>
-      </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-    </row>
-    <row r="134" ht="20.05" customHeight="1">
-      <c r="A134" s="8">
-        <v>132</v>
-      </c>
-      <c r="B134" s="9">
-        <v>64</v>
-      </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-    </row>
-    <row r="135" ht="20.05" customHeight="1">
-      <c r="A135" s="8">
-        <v>133</v>
-      </c>
-      <c r="B135" s="9">
-        <v>66</v>
-      </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7992,7 +7429,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E50"/>
+  <dimension ref="A2:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -8062,7 +7499,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -8073,7 +7510,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -8084,7 +7521,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -8095,7 +7532,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -8106,7 +7543,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -8117,7 +7554,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -8128,7 +7565,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -8139,7 +7576,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -8150,7 +7587,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -8161,7 +7598,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -8172,7 +7609,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -8183,7 +7620,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -8194,7 +7631,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -8205,7 +7642,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -8216,7 +7653,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -8227,7 +7664,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -8238,7 +7675,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -8249,7 +7686,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="9">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -8260,7 +7697,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -8271,7 +7708,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -8282,7 +7719,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="9">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -8293,7 +7730,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="9">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -8304,7 +7741,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="9">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -8315,7 +7752,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="9">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -8326,7 +7763,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="9">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -8337,220 +7774,11 @@
         <v>29</v>
       </c>
       <c r="B31" s="9">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="8">
-        <v>30</v>
-      </c>
-      <c r="B32" s="9">
-        <v>4</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="8">
-        <v>31</v>
-      </c>
-      <c r="B33" s="9">
-        <v>8</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="8">
-        <v>32</v>
-      </c>
-      <c r="B34" s="9">
-        <v>9</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="8">
-        <v>33</v>
-      </c>
-      <c r="B35" s="9">
-        <v>9</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="8">
-        <v>34</v>
-      </c>
-      <c r="B36" s="9">
-        <v>10</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="8">
-        <v>35</v>
-      </c>
-      <c r="B37" s="9">
-        <v>11</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="8">
-        <v>36</v>
-      </c>
-      <c r="B38" s="9">
-        <v>12</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="8">
-        <v>37</v>
-      </c>
-      <c r="B39" s="9">
-        <v>12</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="8">
-        <v>38</v>
-      </c>
-      <c r="B40" s="9">
-        <v>12</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="8">
-        <v>39</v>
-      </c>
-      <c r="B41" s="9">
-        <v>13</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="8">
-        <v>40</v>
-      </c>
-      <c r="B42" s="9">
-        <v>15</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="8">
-        <v>41</v>
-      </c>
-      <c r="B43" s="9">
-        <v>15</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="8">
-        <v>42</v>
-      </c>
-      <c r="B44" s="9">
-        <v>21</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="8">
-        <v>43</v>
-      </c>
-      <c r="B45" s="9">
-        <v>27</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="8">
-        <v>44</v>
-      </c>
-      <c r="B46" s="9">
-        <v>28</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="8">
-        <v>45</v>
-      </c>
-      <c r="B47" s="9">
-        <v>33</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="8">
-        <v>46</v>
-      </c>
-      <c r="B48" s="9">
-        <v>33</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="8">
-        <v>47</v>
-      </c>
-      <c r="B49" s="9">
-        <v>58</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="8">
-        <v>48</v>
-      </c>
-      <c r="B50" s="9">
-        <v>70</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8570,7 +7798,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E50"/>
+  <dimension ref="A2:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -8684,7 +7912,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -8695,7 +7923,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -8706,7 +7934,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -8717,7 +7945,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -8728,7 +7956,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -8739,7 +7967,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -8750,7 +7978,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -8761,7 +7989,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -8772,7 +8000,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -8783,7 +8011,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -8794,7 +8022,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -8805,7 +8033,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -8816,7 +8044,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -8827,7 +8055,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -8838,7 +8066,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -8849,7 +8077,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -8860,7 +8088,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -8871,7 +8099,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -8882,7 +8110,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -8893,7 +8121,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -8904,7 +8132,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -8915,220 +8143,11 @@
         <v>29</v>
       </c>
       <c r="B31" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="8">
-        <v>30</v>
-      </c>
-      <c r="B32" s="9">
-        <v>4</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="8">
-        <v>31</v>
-      </c>
-      <c r="B33" s="9">
-        <v>4</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="8">
-        <v>32</v>
-      </c>
-      <c r="B34" s="9">
-        <v>5</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="8">
-        <v>33</v>
-      </c>
-      <c r="B35" s="9">
-        <v>5</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="8">
-        <v>34</v>
-      </c>
-      <c r="B36" s="9">
-        <v>5</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="8">
-        <v>35</v>
-      </c>
-      <c r="B37" s="9">
-        <v>5</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="8">
-        <v>36</v>
-      </c>
-      <c r="B38" s="9">
-        <v>5</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="8">
-        <v>37</v>
-      </c>
-      <c r="B39" s="9">
-        <v>5</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="8">
-        <v>38</v>
-      </c>
-      <c r="B40" s="9">
-        <v>5</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="8">
-        <v>39</v>
-      </c>
-      <c r="B41" s="9">
-        <v>5</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="8">
-        <v>40</v>
-      </c>
-      <c r="B42" s="9">
-        <v>5</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="8">
-        <v>41</v>
-      </c>
-      <c r="B43" s="9">
-        <v>5</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="8">
-        <v>42</v>
-      </c>
-      <c r="B44" s="9">
-        <v>5</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="8">
-        <v>43</v>
-      </c>
-      <c r="B45" s="9">
-        <v>5</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="8">
-        <v>44</v>
-      </c>
-      <c r="B46" s="9">
-        <v>5</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="8">
-        <v>45</v>
-      </c>
-      <c r="B47" s="9">
-        <v>5</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="8">
-        <v>46</v>
-      </c>
-      <c r="B48" s="9">
-        <v>5</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="8">
-        <v>47</v>
-      </c>
-      <c r="B49" s="9">
-        <v>5</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="8">
-        <v>48</v>
-      </c>
-      <c r="B50" s="9">
-        <v>5</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10461,7 +9480,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -10472,7 +9491,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
@@ -10483,7 +9502,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
@@ -10527,7 +9546,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
@@ -10538,7 +9557,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
@@ -10582,7 +9601,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -10604,7 +9623,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
@@ -10615,7 +9634,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="9">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
@@ -10626,7 +9645,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="9">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
